--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivekctongaonkar/Desktop/Raajas/stre/Mapping ProMED alerts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D1C72F-1699-4E4C-B27C-BC28FD5A7E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8151EECF-B7C5-8940-A600-CB160968734D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{92CE9DDE-4BD2-7A4E-AAC1-76E35D57A2E8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>No.</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Disease name</t>
   </si>
   <si>
-    <t>Microbe type</t>
-  </si>
-  <si>
     <t>Zoonotic?</t>
   </si>
   <si>
@@ -71,23 +68,85 @@
     <t>ProMED link</t>
   </si>
   <si>
-    <t>https://promedmail.org/promed-post/?id=8716046</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>City,State,Country,latitude,longitude</t>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>Measles morbillivirus</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Pathogen type</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8715466</t>
+  </si>
+  <si>
+    <t>E.Coli</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Mumps</t>
+  </si>
+  <si>
+    <t>Naharlagun, Arunachal Pradesh, India, 27.103045, 93.6923923</t>
+  </si>
+  <si>
+    <t>Mumps virus</t>
+  </si>
+  <si>
+    <t>Kerala, India, 10.3528744, 76.5120396</t>
+  </si>
+  <si>
+    <t>Botulism</t>
+  </si>
+  <si>
+    <t>Whangarei, New Zealand, -35.7275268, 174.3194202</t>
+  </si>
+  <si>
+    <t>Clostridium botulinum</t>
+  </si>
+  <si>
+    <t>Avian (ducks, seagulls, signet)</t>
+  </si>
+  <si>
+    <t>Eindhoven, Netherlands, 51.4485569, 5.450122521857143</t>
+  </si>
+  <si>
+    <t>West Seattle, Washington, USA, 47.5709315, -122.3865166</t>
+  </si>
+  <si>
+    <t>Enterohemorrhagic E. coli (EHEC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,13 +169,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,25 +512,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213CEB4-1ED8-6342-9CC0-AA460BE39C43}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -478,45 +541,176 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
-        <v>11</v>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45370</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45374</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45340</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45379</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45388</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{3624462F-DD5F-D54B-BF4D-54C78137E8DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivekctongaonkar/Desktop/Raajas/stre/Mapping ProMED alerts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8151EECF-B7C5-8940-A600-CB160968734D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAB8673-1751-754B-BCDA-F7421CE3329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{92CE9DDE-4BD2-7A4E-AAC1-76E35D57A2E8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
   <si>
     <t>No.</t>
   </si>
@@ -68,7 +68,7 @@
     <t>ProMED link</t>
   </si>
   <si>
-    <t>Location</t>
+    <t>https://promedmail.org/promed-post/?id=8716046</t>
   </si>
   <si>
     <t>Measles</t>
@@ -101,34 +101,466 @@
     <t>Mumps</t>
   </si>
   <si>
-    <t>Naharlagun, Arunachal Pradesh, India, 27.103045, 93.6923923</t>
-  </si>
-  <si>
     <t>Mumps virus</t>
   </si>
   <si>
-    <t>Kerala, India, 10.3528744, 76.5120396</t>
-  </si>
-  <si>
     <t>Botulism</t>
   </si>
   <si>
-    <t>Whangarei, New Zealand, -35.7275268, 174.3194202</t>
-  </si>
-  <si>
     <t>Clostridium botulinum</t>
   </si>
   <si>
     <t>Avian (ducks, seagulls, signet)</t>
   </si>
   <si>
-    <t>Eindhoven, Netherlands, 51.4485569, 5.450122521857143</t>
-  </si>
-  <si>
-    <t>West Seattle, Washington, USA, 47.5709315, -122.3865166</t>
-  </si>
-  <si>
     <t>Enterohemorrhagic E. coli (EHEC)</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>West Seattle</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Naharlagun</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Whangarei</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>DuPage County</t>
+  </si>
+  <si>
+    <t>Santa Monica Pier, Los Angeles</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8715944</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8715825</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8715804</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8715647</t>
+  </si>
+  <si>
+    <t>Melioidosis</t>
+  </si>
+  <si>
+    <t>Sabah</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Burkholderia pseudomallei</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8715983</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8715984</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8715985</t>
+  </si>
+  <si>
+    <t>Food poisoning</t>
+  </si>
+  <si>
+    <t>Majri</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716003</t>
+  </si>
+  <si>
+    <t>Brucellosis</t>
+  </si>
+  <si>
+    <t>Arris</t>
+  </si>
+  <si>
+    <t>Batna</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716004</t>
+  </si>
+  <si>
+    <t>Equine Herpes Virus</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Travis County</t>
+  </si>
+  <si>
+    <t>Equine Herpes Myeloencephalopathy (EHM)</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Elkhart County</t>
+  </si>
+  <si>
+    <t>Kosciusko County</t>
+  </si>
+  <si>
+    <t>LaGrange County</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Lorain County</t>
+  </si>
+  <si>
+    <t>Pickaway County</t>
+  </si>
+  <si>
+    <t>Erie County</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716005</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716006</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716007</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716008</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716009</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716010</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716011</t>
+  </si>
+  <si>
+    <t>Oropouche fever</t>
+  </si>
+  <si>
+    <t>Teresina</t>
+  </si>
+  <si>
+    <t>Piaui</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8715994</t>
+  </si>
+  <si>
+    <t>Oropouche orthobunyavirus (OROV)</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Swine Flu (Influenza A)</t>
+  </si>
+  <si>
+    <t>H1N1</t>
+  </si>
+  <si>
+    <t>Trichomoniasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trans Pecos </t>
+  </si>
+  <si>
+    <t>Avian (doves)</t>
+  </si>
+  <si>
+    <t>Protozoan</t>
+  </si>
+  <si>
+    <t>Trichomonas gallinae</t>
+  </si>
+  <si>
+    <t>Kyasanur Forest Disease</t>
+  </si>
+  <si>
+    <t>Malenadu</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Kyasanur Forest disease virus (KFDV)</t>
+  </si>
+  <si>
+    <t>Leptospirosis</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>Leptospira</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716013</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716015</t>
+  </si>
+  <si>
+    <t>County Dublin</t>
+  </si>
+  <si>
+    <t>Hepatitis A</t>
+  </si>
+  <si>
+    <t>Penn Yan</t>
+  </si>
+  <si>
+    <t>Hepatitis A Virus (HAV)</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716021</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716018</t>
+  </si>
+  <si>
+    <t>Shigellosis</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Shigella Sonnei (XDR)</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716022</t>
+  </si>
+  <si>
+    <t>Tick Borne Encephalitis</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716028</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Plasmodium</t>
+  </si>
+  <si>
+    <t>P. falciparum</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716043</t>
+  </si>
+  <si>
+    <t>Highly Pathogenic Avian Influenza</t>
+  </si>
+  <si>
+    <t>Lagoon Island</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>H5N1</t>
+  </si>
+  <si>
+    <t>Avian (Brown skua)</t>
+  </si>
+  <si>
+    <t>Alappuzha</t>
+  </si>
+  <si>
+    <t>Avian (ducks)</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716052</t>
+  </si>
+  <si>
+    <t>Ernakulam</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716054</t>
+  </si>
+  <si>
+    <t>Dengue</t>
+  </si>
+  <si>
+    <t>South Darfur</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Dengue Virus (DENV)</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716055</t>
+  </si>
+  <si>
+    <t>Antioquia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716045</t>
+  </si>
+  <si>
+    <t>Salmon Poisoning</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Neorickettsia helminthoeca</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716069</t>
+  </si>
+  <si>
+    <t>H5N5</t>
+  </si>
+  <si>
+    <t>Avian (multiple)</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716070</t>
+  </si>
+  <si>
+    <t>Timor Leste</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Hand, foot, and mouth disease</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh City</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716087</t>
+  </si>
+  <si>
+    <t>Picornaviridae family</t>
+  </si>
+  <si>
+    <t>Rabies</t>
+  </si>
+  <si>
+    <t>Oecusse</t>
+  </si>
+  <si>
+    <t>Rabies virus</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716088</t>
   </si>
 </sst>
 </file>
@@ -144,9 +576,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,17 +599,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,28 +941,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213CEB4-1ED8-6342-9CC0-AA460BE39C43}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,37 +972,49 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -579,28 +1022,37 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>51.4485569</v>
+      </c>
+      <c r="G2">
+        <v>5.4501225218571401</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1">
+      <c r="L2" s="1">
         <v>45370</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -608,28 +1060,40 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3">
+        <v>47.5709315</v>
+      </c>
+      <c r="G3">
+        <v>-122.38651659999999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1">
         <v>45374</v>
       </c>
-      <c r="I3" s="1">
+      <c r="M3" s="1">
         <v>45340</v>
       </c>
-      <c r="K3" s="1">
+      <c r="O3" s="1">
         <v>45350</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -637,80 +1101,1491 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>27.103045000000002</v>
+      </c>
+      <c r="G4">
+        <v>93.692392299999995</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1">
+      <c r="L4" s="1">
         <v>45379</v>
       </c>
-      <c r="J4" s="1">
+      <c r="N4" s="1">
         <v>45374</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>10.352874399999999</v>
+      </c>
+      <c r="G5">
+        <v>76.512039599999994</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="1">
+        <v>45379</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>-35.7275268</v>
+      </c>
+      <c r="G6">
+        <v>174.3194202</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45388</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7">
+        <v>54.702354499999998</v>
+      </c>
+      <c r="G7">
+        <v>-3.2765753000000002</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45389</v>
+      </c>
+      <c r="M7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>41.875561599999997</v>
+      </c>
+      <c r="G8">
+        <v>-87.6244212</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45396</v>
+      </c>
+      <c r="M8" s="2">
+        <v>45352</v>
+      </c>
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>41.860373500000001</v>
+      </c>
+      <c r="G9">
+        <v>-88.090687299999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45396</v>
+      </c>
+      <c r="M9" s="1">
+        <v>45395</v>
+      </c>
+      <c r="P9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>34.008896049999997</v>
+      </c>
+      <c r="G10">
+        <v>-118.497399782328</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45396</v>
+      </c>
+      <c r="N10" s="1">
+        <v>45395</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>5.4257359000000003</v>
+      </c>
+      <c r="G11">
+        <v>117.03263920000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45398</v>
+      </c>
+      <c r="N11" s="1">
+        <v>45362</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>36.167255900000001</v>
+      </c>
+      <c r="G12">
+        <v>-115.148516</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45398</v>
+      </c>
+      <c r="N12" s="1">
+        <v>45394</v>
+      </c>
+      <c r="P12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>51.507445599999997</v>
+      </c>
+      <c r="G13">
+        <v>-0.1277653</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45398</v>
+      </c>
+      <c r="P13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>20.139334699999999</v>
+      </c>
+      <c r="G14">
+        <v>79.042962099999997</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45399</v>
+      </c>
+      <c r="M14" s="1">
+        <v>45395</v>
+      </c>
+      <c r="P14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15">
+        <v>35.258513999999998</v>
+      </c>
+      <c r="G15">
+        <v>6.3449818000000002</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>30.287856900000001</v>
+      </c>
+      <c r="G16">
+        <v>-97.756139200000007</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>41.601279599999998</v>
+      </c>
+      <c r="G17">
+        <v>-85.859060299999996</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>41.235195699999998</v>
+      </c>
+      <c r="G18">
+        <v>-85.8529731</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>41.6372578</v>
+      </c>
+      <c r="G19">
+        <v>-85.421694799999997</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>41.263355400000002</v>
+      </c>
+      <c r="G20">
+        <v>-82.173474600000006</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>39.672532699999998</v>
+      </c>
+      <c r="G21">
+        <v>-83.037328400000007</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>42.716426300000002</v>
+      </c>
+      <c r="G22">
+        <v>-78.762032700000006</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>-5.0874607999999997</v>
+      </c>
+      <c r="G23">
+        <v>-42.804957100000003</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45399</v>
+      </c>
+      <c r="N23" s="1">
+        <v>45390</v>
+      </c>
+      <c r="P23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>26.8105777</v>
+      </c>
+      <c r="G24">
+        <v>73.768454899999995</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>30.890861999999998</v>
+      </c>
+      <c r="G25">
+        <v>-103.300214</v>
+      </c>
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26">
+        <v>13.834383000000001</v>
+      </c>
+      <c r="G26">
+        <v>75.108931999999996</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>40.7127281</v>
+      </c>
+      <c r="G27">
+        <v>-74.006015199999993</v>
+      </c>
+      <c r="H27" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45400</v>
+      </c>
+      <c r="P27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45388</v>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28">
+        <v>53.349379499999998</v>
+      </c>
+      <c r="G28">
+        <v>-6.2605592999999997</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45400</v>
+      </c>
+      <c r="N28" s="1">
+        <v>45398</v>
+      </c>
+      <c r="P28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>42.6603037</v>
+      </c>
+      <c r="G29">
+        <v>-77.0540989</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="1">
+        <v>45400</v>
+      </c>
+      <c r="M29" s="1">
+        <v>45378</v>
+      </c>
+      <c r="N29" s="1">
+        <v>45394</v>
+      </c>
+      <c r="P29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30">
+        <v>42.485822400000004</v>
+      </c>
+      <c r="G30">
+        <v>74.714583000000005</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45400</v>
+      </c>
+      <c r="P30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31">
+        <v>51.2211097</v>
+      </c>
+      <c r="G31">
+        <v>4.3997080999999998</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45400</v>
+      </c>
+      <c r="M31" s="1">
+        <v>45349</v>
+      </c>
+      <c r="N31" s="1">
+        <v>45391</v>
+      </c>
+      <c r="O31" s="1">
+        <v>45355</v>
+      </c>
+      <c r="P31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32">
+        <v>46.798562400000002</v>
+      </c>
+      <c r="G32">
+        <v>8.2319735999999999</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="1">
+        <v>45401</v>
+      </c>
+      <c r="P32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33">
+        <v>10.273563299999999</v>
+      </c>
+      <c r="G33">
+        <v>-84.0739102</v>
+      </c>
+      <c r="H33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="1">
+        <v>45401</v>
+      </c>
+      <c r="P33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34">
+        <v>-67.592726999999996</v>
+      </c>
+      <c r="G34">
+        <v>-68.235001999999994</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" t="s">
+        <v>143</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45401</v>
+      </c>
+      <c r="M34" s="1">
+        <v>45342</v>
+      </c>
+      <c r="O34" s="1">
+        <v>45394</v>
+      </c>
+      <c r="P34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>9.4980001000000005</v>
+      </c>
+      <c r="G35">
+        <v>76.333482000000004</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" t="s">
+        <v>145</v>
+      </c>
+      <c r="L35" s="1">
+        <v>45402</v>
+      </c>
+      <c r="P35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36">
+        <v>9.9840800000000005</v>
+      </c>
+      <c r="G36">
+        <v>76.274145700000005</v>
+      </c>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="1">
+        <v>45402</v>
+      </c>
+      <c r="P36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="1">
+        <v>45402</v>
+      </c>
+      <c r="N37" s="1">
+        <v>45399</v>
+      </c>
+      <c r="P37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38">
+        <v>7.0000084999999999</v>
+      </c>
+      <c r="G38">
+        <v>-75.500008600000001</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="1">
+        <v>45403</v>
+      </c>
+      <c r="N38" s="1">
+        <v>45400</v>
+      </c>
+      <c r="P38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>33.7532578</v>
+      </c>
+      <c r="G39">
+        <v>-117.7484607</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39" t="s">
+        <v>158</v>
+      </c>
+      <c r="L39" s="1">
+        <v>45403</v>
+      </c>
+      <c r="P39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40">
+        <v>36.5748441</v>
+      </c>
+      <c r="G40">
+        <v>139.23941790000001</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>161</v>
+      </c>
+      <c r="J40" t="s">
+        <v>162</v>
+      </c>
+      <c r="L40" s="1">
+        <v>45403</v>
+      </c>
+      <c r="M40" s="1">
+        <v>45279</v>
+      </c>
+      <c r="N40" s="1">
+        <v>45287</v>
+      </c>
+      <c r="P40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41">
+        <v>10.776389699999999</v>
+      </c>
+      <c r="G41">
+        <v>106.70113910000001</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="1">
+        <v>45404</v>
+      </c>
+      <c r="P41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42">
+        <v>-9.3355508500000006</v>
+      </c>
+      <c r="G42">
+        <v>124.232328604939</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>173</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>70</v>
+      </c>
+      <c r="L42" s="1">
+        <v>45404</v>
+      </c>
+      <c r="M42" s="1">
+        <v>45350</v>
+      </c>
+      <c r="P42" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{3624462F-DD5F-D54B-BF4D-54C78137E8DD}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivekctongaonkar/Desktop/Raajas/stre/Mapping ProMED alerts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAB8673-1751-754B-BCDA-F7421CE3329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D92AF1B-61E0-AA48-B057-4F4E8208E278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{92CE9DDE-4BD2-7A4E-AAC1-76E35D57A2E8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="177">
   <si>
     <t>No.</t>
   </si>
@@ -561,16 +561,30 @@
   </si>
   <si>
     <t>https://promedmail.org/promed-post/?id=8716088</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>https://promedmail.org/promed-post/?id=8716106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -599,16 +613,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -941,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213CEB4-1ED8-6342-9CC0-AA460BE39C43}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1065,7 @@
       <c r="L2" s="1">
         <v>45370</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1241,7 +1258,7 @@
       <c r="L7" s="1">
         <v>45389</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>45200</v>
       </c>
       <c r="P7" t="s">
@@ -1282,7 +1299,7 @@
       <c r="L8" s="1">
         <v>45396</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>45352</v>
       </c>
       <c r="P8" t="s">
@@ -1551,13 +1568,16 @@
       <c r="H15" t="s">
         <v>19</v>
       </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
       <c r="K15" t="s">
         <v>70</v>
       </c>
       <c r="L15" s="1">
         <v>45399</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2584,8 +2604,43 @@
         <v>174</v>
       </c>
     </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43">
+        <v>-13.769389500000001</v>
+      </c>
+      <c r="G43">
+        <v>-172.12004999999999</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="1">
+        <v>45405</v>
+      </c>
+      <c r="P43" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P15" r:id="rId1" xr:uid="{ADB71EF1-975E-354E-918B-F8638F394A3F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>